--- a/config_12.22/shoping_config_cjj.xlsx
+++ b/config_12.22/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10828,10 +10828,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q471" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W381" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q496" sqref="Q496"/>
+      <selection pane="bottomRight" activeCell="Z393" sqref="Z393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -35296,10 +35296,10 @@
         <v>9999999</v>
       </c>
       <c r="Y386" s="60">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z386" s="60">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA386" s="19">
         <v>44</v>
@@ -35365,10 +35365,10 @@
         <v>9999999</v>
       </c>
       <c r="Y387" s="60">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z387" s="60">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA387" s="19">
         <v>44</v>
@@ -35434,10 +35434,10 @@
         <v>9999999</v>
       </c>
       <c r="Y388" s="60">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z388" s="60">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA388" s="19">
         <v>44</v>
@@ -35502,11 +35502,11 @@
       <c r="X389" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="76">
-        <v>1605571200</v>
-      </c>
-      <c r="Z389" s="76">
-        <v>1606147199</v>
+      <c r="Y389" s="60">
+        <v>1608595200</v>
+      </c>
+      <c r="Z389" s="60">
+        <v>1609171199</v>
       </c>
       <c r="AA389" s="19">
         <v>45</v>
@@ -35571,11 +35571,11 @@
       <c r="X390" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="76">
-        <v>1605571200</v>
-      </c>
-      <c r="Z390" s="76">
-        <v>1606147199</v>
+      <c r="Y390" s="60">
+        <v>1608595200</v>
+      </c>
+      <c r="Z390" s="60">
+        <v>1609171199</v>
       </c>
       <c r="AA390" s="19">
         <v>45</v>
@@ -35640,11 +35640,11 @@
       <c r="X391" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="76">
-        <v>1605571200</v>
-      </c>
-      <c r="Z391" s="76">
-        <v>1606147199</v>
+      <c r="Y391" s="60">
+        <v>1608595200</v>
+      </c>
+      <c r="Z391" s="60">
+        <v>1609171199</v>
       </c>
       <c r="AA391" s="19">
         <v>45</v>
@@ -35710,10 +35710,10 @@
         <v>9999999</v>
       </c>
       <c r="Y392" s="60">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z392" s="60">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA392" s="19">
         <v>46</v>
@@ -35779,10 +35779,10 @@
         <v>9999999</v>
       </c>
       <c r="Y393" s="60">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z393" s="60">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA393" s="19">
         <v>46</v>
@@ -35848,10 +35848,10 @@
         <v>9999999</v>
       </c>
       <c r="Y394" s="60">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z394" s="60">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA394" s="19">
         <v>46</v>

--- a/config_12.22/shoping_config_cjj.xlsx
+++ b/config_12.22/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1830">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6623,10 +6623,6 @@
   </si>
   <si>
     <t>双十二6元礼包</t>
-  </si>
-  <si>
-    <t>"jing_bi","shop_gold_sum","prop_web_chip_huafei"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{52000,56000,100},</t>
@@ -10828,10 +10824,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W381" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="M60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z393" sqref="Z393"/>
+      <selection pane="bottomRight" activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10897,7 +10893,7 @@
         <v>506</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1081</v>
@@ -14691,7 +14687,7 @@
         <v>235</v>
       </c>
       <c r="H67" s="85" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="L67" s="81">
         <v>-4</v>
@@ -14712,7 +14708,7 @@
         <v>90</v>
       </c>
       <c r="R67" s="86" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="W67" s="81" t="s">
         <v>541</v>
@@ -14750,7 +14746,7 @@
         <v>237</v>
       </c>
       <c r="H68" s="85" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="L68" s="81">
         <v>-4</v>
@@ -14771,7 +14767,7 @@
         <v>90</v>
       </c>
       <c r="R68" s="86" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="W68" s="81" t="s">
         <v>541</v>
@@ -14809,7 +14805,7 @@
         <v>239</v>
       </c>
       <c r="H69" s="85" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="L69" s="81">
         <v>-4</v>
@@ -14868,7 +14864,7 @@
         <v>241</v>
       </c>
       <c r="H70" s="85" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="L70" s="81">
         <v>-4</v>
@@ -14889,7 +14885,7 @@
         <v>90</v>
       </c>
       <c r="R70" s="86" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="W70" s="81" t="s">
         <v>541</v>
@@ -14927,7 +14923,7 @@
         <v>242</v>
       </c>
       <c r="H71" s="85" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="L71" s="81">
         <v>-4</v>
@@ -14948,7 +14944,7 @@
         <v>90</v>
       </c>
       <c r="R71" s="86" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="W71" s="81" t="s">
         <v>541</v>
@@ -15282,7 +15278,7 @@
         <v>248</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="L77" s="19">
         <v>-20</v>
@@ -15300,10 +15296,10 @@
         <v>100</v>
       </c>
       <c r="Q77" s="19" t="s">
-        <v>1512</v>
+        <v>505</v>
       </c>
       <c r="R77" s="40" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="W77" s="19" t="s">
         <v>541</v>
@@ -15321,10 +15317,10 @@
         <v>90</v>
       </c>
       <c r="AC77" s="19" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AD77" s="40" t="s">
         <v>1513</v>
-      </c>
-      <c r="AD77" s="40" t="s">
-        <v>1514</v>
       </c>
       <c r="AH77" s="19">
         <v>1</v>
@@ -15347,7 +15343,7 @@
         <v>249</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="L78" s="19">
         <v>-20</v>
@@ -15365,10 +15361,10 @@
         <v>1000</v>
       </c>
       <c r="Q78" s="19" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="W78" s="19" t="s">
         <v>541</v>
@@ -15386,10 +15382,10 @@
         <v>90</v>
       </c>
       <c r="AC78" s="19" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AD78" s="40" t="s">
         <v>1516</v>
-      </c>
-      <c r="AD78" s="40" t="s">
-        <v>1517</v>
       </c>
       <c r="AH78" s="19">
         <v>1</v>
@@ -15433,7 +15429,7 @@
         <v>250</v>
       </c>
       <c r="R79" s="10" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="W79" s="5" t="s">
         <v>541</v>
@@ -15498,7 +15494,7 @@
         <v>250</v>
       </c>
       <c r="R80" s="10" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="W80" s="5" t="s">
         <v>541</v>
@@ -15545,7 +15541,7 @@
         <v>252</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="L81" s="19">
         <v>-20</v>
@@ -15563,10 +15559,10 @@
         <v>4800</v>
       </c>
       <c r="Q81" s="19" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="R81" s="40" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="W81" s="19" t="s">
         <v>541</v>
@@ -15584,10 +15580,10 @@
         <v>601</v>
       </c>
       <c r="AC81" s="19" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AD81" s="40" t="s">
         <v>1519</v>
-      </c>
-      <c r="AD81" s="40" t="s">
-        <v>1520</v>
       </c>
       <c r="AH81" s="19">
         <v>1</v>
@@ -15631,7 +15627,7 @@
         <v>254</v>
       </c>
       <c r="R82" s="10" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="W82" s="5" t="s">
         <v>541</v>
@@ -15687,7 +15683,7 @@
         <v>1000</v>
       </c>
       <c r="R83" s="10" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="W83" s="5" t="s">
         <v>542</v>
@@ -15743,7 +15739,7 @@
         <v>934</v>
       </c>
       <c r="R84" s="10" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="W84" s="5" t="s">
         <v>542</v>
@@ -15799,7 +15795,7 @@
         <v>1001</v>
       </c>
       <c r="R85" s="10" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="W85" s="5" t="s">
         <v>543</v>
@@ -15906,7 +15902,7 @@
         <v>1001</v>
       </c>
       <c r="R87" s="10" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="W87" s="5" t="s">
         <v>543</v>
@@ -15962,7 +15958,7 @@
         <v>258</v>
       </c>
       <c r="R88" s="10" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="W88" s="5" t="s">
         <v>542</v>
@@ -16018,7 +16014,7 @@
         <v>129</v>
       </c>
       <c r="R89" s="10" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="W89" s="5" t="s">
         <v>542</v>
@@ -16074,7 +16070,7 @@
         <v>222</v>
       </c>
       <c r="R90" s="10" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="W90" s="5" t="s">
         <v>542</v>
@@ -16186,7 +16182,7 @@
         <v>934</v>
       </c>
       <c r="R92" s="10" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="W92" s="5" t="s">
         <v>542</v>
@@ -16242,7 +16238,7 @@
         <v>265</v>
       </c>
       <c r="R93" s="10" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="W93" s="5" t="s">
         <v>542</v>
@@ -16295,7 +16291,7 @@
         <v>90</v>
       </c>
       <c r="R94" s="86" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="W94" s="85" t="s">
         <v>541</v>
@@ -16351,7 +16347,7 @@
         <v>218</v>
       </c>
       <c r="R95" s="10" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="S95" s="7"/>
       <c r="U95" s="7"/>
@@ -16652,7 +16648,7 @@
         <v>582</v>
       </c>
       <c r="R100" s="40" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="W100" s="19" t="s">
         <v>542</v>
@@ -16715,7 +16711,7 @@
         <v>583</v>
       </c>
       <c r="R101" s="40" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="W101" s="19" t="s">
         <v>542</v>
@@ -16778,7 +16774,7 @@
         <v>583</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="W102" s="19" t="s">
         <v>542</v>
@@ -16841,7 +16837,7 @@
         <v>583</v>
       </c>
       <c r="R103" s="40" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="W103" s="19" t="s">
         <v>542</v>
@@ -16904,7 +16900,7 @@
         <v>583</v>
       </c>
       <c r="R104" s="40" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="W104" s="19" t="s">
         <v>542</v>
@@ -16967,7 +16963,7 @@
         <v>582</v>
       </c>
       <c r="R105" s="40" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="W105" s="19" t="s">
         <v>542</v>
@@ -17030,7 +17026,7 @@
         <v>583</v>
       </c>
       <c r="R106" s="40" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="W106" s="19" t="s">
         <v>542</v>
@@ -17093,7 +17089,7 @@
         <v>582</v>
       </c>
       <c r="R107" s="40" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="W107" s="19" t="s">
         <v>542</v>
@@ -17156,7 +17152,7 @@
         <v>583</v>
       </c>
       <c r="R108" s="40" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="W108" s="19" t="s">
         <v>542</v>
@@ -18311,7 +18307,7 @@
         <v>332</v>
       </c>
       <c r="H128" s="85" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="L128" s="85">
         <v>-10</v>
@@ -18332,7 +18328,7 @@
         <v>90</v>
       </c>
       <c r="R128" s="86" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="W128" s="85" t="s">
         <v>541</v>
@@ -18370,7 +18366,7 @@
         <v>531</v>
       </c>
       <c r="H129" s="85" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="L129" s="85">
         <v>-11</v>
@@ -18391,7 +18387,7 @@
         <v>90</v>
       </c>
       <c r="R129" s="86" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="W129" s="85" t="s">
         <v>541</v>
@@ -18633,7 +18629,7 @@
         <v>295</v>
       </c>
       <c r="R133" s="10" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="W133" s="5" t="s">
         <v>544</v>
@@ -18695,7 +18691,7 @@
         <v>308</v>
       </c>
       <c r="R134" s="10" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="W134" s="5" t="s">
         <v>544</v>
@@ -18757,7 +18753,7 @@
         <v>311</v>
       </c>
       <c r="R135" s="10" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="W135" s="5" t="s">
         <v>544</v>
@@ -18821,7 +18817,7 @@
         <v>160</v>
       </c>
       <c r="R136" s="10" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="W136" s="5" t="s">
         <v>544</v>
@@ -18882,7 +18878,7 @@
         <v>160</v>
       </c>
       <c r="R137" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="W137" s="5" t="s">
         <v>544</v>
@@ -18943,7 +18939,7 @@
         <v>160</v>
       </c>
       <c r="R138" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="W138" s="5" t="s">
         <v>544</v>
@@ -19004,7 +19000,7 @@
         <v>160</v>
       </c>
       <c r="R139" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="W139" s="5" t="s">
         <v>544</v>
@@ -19065,7 +19061,7 @@
         <v>160</v>
       </c>
       <c r="R140" s="10" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="W140" s="5" t="s">
         <v>544</v>
@@ -19126,7 +19122,7 @@
         <v>160</v>
       </c>
       <c r="R141" s="10" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="W141" s="5" t="s">
         <v>544</v>
@@ -19376,7 +19372,7 @@
         <v>348</v>
       </c>
       <c r="R145" s="10" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="T145" s="5" t="s">
         <v>90</v>
@@ -19443,7 +19439,7 @@
         <v>278</v>
       </c>
       <c r="R146" s="10" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="T146" s="5" t="s">
         <v>160</v>
@@ -19510,7 +19506,7 @@
         <v>278</v>
       </c>
       <c r="R147" s="10" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="T147" s="5" t="s">
         <v>160</v>
@@ -19577,7 +19573,7 @@
         <v>278</v>
       </c>
       <c r="R148" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T148" s="5" t="s">
         <v>160</v>
@@ -19644,7 +19640,7 @@
         <v>278</v>
       </c>
       <c r="R149" s="10" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="T149" s="5" t="s">
         <v>160</v>
@@ -19892,7 +19888,7 @@
         <v>348</v>
       </c>
       <c r="R153" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="T153" s="5" t="s">
         <v>90</v>
@@ -19954,7 +19950,7 @@
         <v>348</v>
       </c>
       <c r="R154" s="10" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="T154" s="5" t="s">
         <v>90</v>
@@ -20016,7 +20012,7 @@
         <v>348</v>
       </c>
       <c r="R155" s="10" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="T155" s="5" t="s">
         <v>90</v>
@@ -20078,7 +20074,7 @@
         <v>348</v>
       </c>
       <c r="R156" s="10" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="T156" s="5" t="s">
         <v>90</v>
@@ -20140,7 +20136,7 @@
         <v>348</v>
       </c>
       <c r="R157" s="10" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="T157" s="5" t="s">
         <v>90</v>
@@ -20577,7 +20573,7 @@
         <v>220</v>
       </c>
       <c r="R164" s="10" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="W164" s="5" t="s">
         <v>541</v>
@@ -20825,7 +20821,7 @@
         <v>979</v>
       </c>
       <c r="R168" s="40" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W168" s="19" t="s">
         <v>541</v>
@@ -20890,7 +20886,7 @@
         <v>979</v>
       </c>
       <c r="R169" s="40" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W169" s="19" t="s">
         <v>617</v>
@@ -20952,7 +20948,7 @@
         <v>979</v>
       </c>
       <c r="R170" s="40" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="W170" s="19" t="s">
         <v>617</v>
@@ -20990,13 +20986,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I171" s="44" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="J171" s="44" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="L171" s="44">
         <v>-28</v>
@@ -21014,10 +21010,10 @@
         <v>100</v>
       </c>
       <c r="Q171" s="44" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="R171" s="48" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="W171" s="44" t="s">
         <v>1132</v>
@@ -21058,13 +21054,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I172" s="44" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="J172" s="44" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="L172" s="44">
         <v>-28</v>
@@ -21082,10 +21078,10 @@
         <v>300</v>
       </c>
       <c r="Q172" s="44" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="R172" s="48" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="W172" s="44" t="s">
         <v>544</v>
@@ -21126,13 +21122,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I173" s="44" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J173" s="44" t="s">
         <v>1546</v>
-      </c>
-      <c r="J173" s="44" t="s">
-        <v>1547</v>
       </c>
       <c r="L173" s="44">
         <v>-28</v>
@@ -21150,10 +21146,10 @@
         <v>600</v>
       </c>
       <c r="Q173" s="44" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="R173" s="48" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="W173" s="44" t="s">
         <v>544</v>
@@ -21194,13 +21190,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I174" s="44" t="s">
+        <v>1547</v>
+      </c>
+      <c r="J174" s="44" t="s">
         <v>1548</v>
-      </c>
-      <c r="J174" s="44" t="s">
-        <v>1549</v>
       </c>
       <c r="L174" s="44">
         <v>-28</v>
@@ -21218,10 +21214,10 @@
         <v>600</v>
       </c>
       <c r="Q174" s="44" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="R174" s="48" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="W174" s="44" t="s">
         <v>544</v>
@@ -21262,13 +21258,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I175" s="44" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="J175" s="44" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="L175" s="44">
         <v>-28</v>
@@ -21286,10 +21282,10 @@
         <v>1000</v>
       </c>
       <c r="Q175" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R175" s="48" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="W175" s="44" t="s">
         <v>544</v>
@@ -21330,13 +21326,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I176" s="44" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="J176" s="44" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="L176" s="44">
         <v>-28</v>
@@ -21354,10 +21350,10 @@
         <v>1800</v>
       </c>
       <c r="Q176" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R176" s="48" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="W176" s="44" t="s">
         <v>544</v>
@@ -21398,13 +21394,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="44" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="I177" s="44" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="J177" s="44" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="L177" s="44">
         <v>-28</v>
@@ -21422,10 +21418,10 @@
         <v>1800</v>
       </c>
       <c r="Q177" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R177" s="48" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="W177" s="44" t="s">
         <v>544</v>
@@ -21466,13 +21462,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I178" s="44" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="J178" s="44" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="L178" s="44">
         <v>-28</v>
@@ -21490,10 +21486,10 @@
         <v>4800</v>
       </c>
       <c r="Q178" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R178" s="48" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="W178" s="44" t="s">
         <v>544</v>
@@ -21534,13 +21530,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I179" s="44" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="J179" s="44" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="L179" s="44">
         <v>-28</v>
@@ -21558,10 +21554,10 @@
         <v>9800</v>
       </c>
       <c r="Q179" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R179" s="48" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="W179" s="44" t="s">
         <v>544</v>
@@ -21602,13 +21598,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I180" s="44" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="J180" s="44" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="L180" s="44">
         <v>-28</v>
@@ -21626,10 +21622,10 @@
         <v>4800</v>
       </c>
       <c r="Q180" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R180" s="48" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="W180" s="44" t="s">
         <v>544</v>
@@ -21670,13 +21666,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I181" s="44" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="J181" s="44" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="L181" s="44">
         <v>-28</v>
@@ -21694,10 +21690,10 @@
         <v>9800</v>
       </c>
       <c r="Q181" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R181" s="48" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="W181" s="44" t="s">
         <v>544</v>
@@ -21738,13 +21734,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I182" s="44" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J182" s="44" t="s">
         <v>1555</v>
-      </c>
-      <c r="J182" s="44" t="s">
-        <v>1556</v>
       </c>
       <c r="L182" s="44">
         <v>-28</v>
@@ -21762,10 +21758,10 @@
         <v>19800</v>
       </c>
       <c r="Q182" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R182" s="48" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="W182" s="44" t="s">
         <v>544</v>
@@ -21806,13 +21802,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I183" s="44" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="J183" s="44" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="L183" s="44">
         <v>-28</v>
@@ -21830,10 +21826,10 @@
         <v>9800</v>
       </c>
       <c r="Q183" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R183" s="48" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="W183" s="44" t="s">
         <v>544</v>
@@ -21874,13 +21870,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I184" s="44" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="J184" s="44" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="L184" s="44">
         <v>-28</v>
@@ -21898,10 +21894,10 @@
         <v>19800</v>
       </c>
       <c r="Q184" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R184" s="48" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="W184" s="44" t="s">
         <v>544</v>
@@ -21942,13 +21938,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="44" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="I185" s="44" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="J185" s="44" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="L185" s="44">
         <v>-28</v>
@@ -21966,10 +21962,10 @@
         <v>49800</v>
       </c>
       <c r="Q185" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R185" s="48" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="W185" s="44" t="s">
         <v>544</v>
@@ -22034,7 +22030,7 @@
         <v>464</v>
       </c>
       <c r="R186" s="10" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="T186" s="5" t="s">
         <v>330</v>
@@ -25998,7 +25994,7 @@
         <v>160</v>
       </c>
       <c r="R247" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="W247" s="5" t="s">
         <v>544</v>
@@ -26065,7 +26061,7 @@
         <v>160</v>
       </c>
       <c r="R248" s="10" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="W248" s="5" t="s">
         <v>544</v>
@@ -26132,7 +26128,7 @@
         <v>160</v>
       </c>
       <c r="R249" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="W249" s="5" t="s">
         <v>544</v>
@@ -26199,7 +26195,7 @@
         <v>461</v>
       </c>
       <c r="R250" s="40" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="W250" s="19" t="s">
         <v>541</v>
@@ -26261,7 +26257,7 @@
         <v>991</v>
       </c>
       <c r="R251" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="T251" s="5" t="s">
         <v>330</v>
@@ -26329,7 +26325,7 @@
         <v>461</v>
       </c>
       <c r="R252" s="10" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="W252" s="5" t="s">
         <v>617</v>
@@ -26391,7 +26387,7 @@
         <v>1196</v>
       </c>
       <c r="R253" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="W253" s="5" t="s">
         <v>544</v>
@@ -26453,7 +26449,7 @@
         <v>503</v>
       </c>
       <c r="R254" s="10" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="W254" s="5" t="s">
         <v>544</v>
@@ -26518,7 +26514,7 @@
         <v>484</v>
       </c>
       <c r="R255" s="10" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="W255" s="5" t="s">
         <v>544</v>
@@ -26583,7 +26579,7 @@
         <v>514</v>
       </c>
       <c r="R256" s="10" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="W256" s="5" t="s">
         <v>544</v>
@@ -26648,7 +26644,7 @@
         <v>600</v>
       </c>
       <c r="R257" s="10" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="T257" s="5" t="s">
         <v>505</v>
@@ -26716,7 +26712,7 @@
         <v>514</v>
       </c>
       <c r="R258" s="10" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="W258" s="5" t="s">
         <v>544</v>
@@ -26781,7 +26777,7 @@
         <v>514</v>
       </c>
       <c r="R259" s="10" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="W259" s="5" t="s">
         <v>544</v>
@@ -26846,7 +26842,7 @@
         <v>514</v>
       </c>
       <c r="R260" s="10" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="W260" s="5" t="s">
         <v>544</v>
@@ -26911,7 +26907,7 @@
         <v>515</v>
       </c>
       <c r="R261" s="10" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="W261" s="5" t="s">
         <v>544</v>
@@ -26976,7 +26972,7 @@
         <v>514</v>
       </c>
       <c r="R262" s="10" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="W262" s="5" t="s">
         <v>544</v>
@@ -27041,7 +27037,7 @@
         <v>516</v>
       </c>
       <c r="R263" s="10" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="W263" s="5" t="s">
         <v>544</v>
@@ -27106,7 +27102,7 @@
         <v>517</v>
       </c>
       <c r="R264" s="10" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="W264" s="5" t="s">
         <v>544</v>
@@ -27171,7 +27167,7 @@
         <v>515</v>
       </c>
       <c r="R265" s="10" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="W265" s="5" t="s">
         <v>544</v>
@@ -27236,7 +27232,7 @@
         <v>521</v>
       </c>
       <c r="R266" s="10" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="W266" s="5" t="s">
         <v>544</v>
@@ -27301,7 +27297,7 @@
         <v>518</v>
       </c>
       <c r="R267" s="10" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="W267" s="5" t="s">
         <v>544</v>
@@ -27366,7 +27362,7 @@
         <v>517</v>
       </c>
       <c r="R268" s="10" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="W268" s="5" t="s">
         <v>544</v>
@@ -27431,7 +27427,7 @@
         <v>514</v>
       </c>
       <c r="R269" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="W269" s="5" t="s">
         <v>544</v>
@@ -27496,7 +27492,7 @@
         <v>519</v>
       </c>
       <c r="R270" s="10" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="W270" s="5" t="s">
         <v>544</v>
@@ -27561,7 +27557,7 @@
         <v>520</v>
       </c>
       <c r="R271" s="10" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="W271" s="5" t="s">
         <v>544</v>
@@ -27626,7 +27622,7 @@
         <v>514</v>
       </c>
       <c r="R272" s="10" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="W272" s="5" t="s">
         <v>544</v>
@@ -27673,7 +27669,7 @@
         <v>534</v>
       </c>
       <c r="H273" s="81" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="L273" s="85">
         <v>-10</v>
@@ -27694,7 +27690,7 @@
         <v>90</v>
       </c>
       <c r="R273" s="82" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="W273" s="85" t="s">
         <v>541</v>
@@ -27755,7 +27751,7 @@
         <v>540</v>
       </c>
       <c r="R274" s="10" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="S274" s="5"/>
       <c r="T274" s="5"/>
@@ -27827,7 +27823,7 @@
         <v>579</v>
       </c>
       <c r="R275" s="10" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="W275" s="5" t="s">
         <v>541</v>
@@ -27892,7 +27888,7 @@
         <v>558</v>
       </c>
       <c r="R276" s="10" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="W276" s="5" t="s">
         <v>544</v>
@@ -27957,7 +27953,7 @@
         <v>558</v>
       </c>
       <c r="R277" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="W277" s="5" t="s">
         <v>555</v>
@@ -28022,7 +28018,7 @@
         <v>558</v>
       </c>
       <c r="R278" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="W278" s="5" t="s">
         <v>556</v>
@@ -28087,7 +28083,7 @@
         <v>558</v>
       </c>
       <c r="R279" s="10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="W279" s="5" t="s">
         <v>557</v>
@@ -28152,7 +28148,7 @@
         <v>558</v>
       </c>
       <c r="R280" s="10" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="W280" s="5" t="s">
         <v>541</v>
@@ -28217,7 +28213,7 @@
         <v>558</v>
       </c>
       <c r="R281" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="W281" s="5" t="s">
         <v>544</v>
@@ -28282,7 +28278,7 @@
         <v>558</v>
       </c>
       <c r="R282" s="10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="W282" s="5" t="s">
         <v>555</v>
@@ -28347,7 +28343,7 @@
         <v>558</v>
       </c>
       <c r="R283" s="10" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="W283" s="5" t="s">
         <v>556</v>
@@ -28412,7 +28408,7 @@
         <v>558</v>
       </c>
       <c r="R284" s="10" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="W284" s="5" t="s">
         <v>557</v>
@@ -28477,7 +28473,7 @@
         <v>558</v>
       </c>
       <c r="R285" s="10" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="W285" s="5" t="s">
         <v>544</v>
@@ -28539,7 +28535,7 @@
         <v>558</v>
       </c>
       <c r="R286" s="10" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="W286" s="5" t="s">
         <v>544</v>
@@ -28601,7 +28597,7 @@
         <v>558</v>
       </c>
       <c r="R287" s="10" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="W287" s="5" t="s">
         <v>544</v>
@@ -28663,7 +28659,7 @@
         <v>558</v>
       </c>
       <c r="R288" s="10" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="W288" s="5" t="s">
         <v>544</v>
@@ -28725,7 +28721,7 @@
         <v>558</v>
       </c>
       <c r="R289" s="10" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="W289" s="5" t="s">
         <v>544</v>
@@ -28787,7 +28783,7 @@
         <v>558</v>
       </c>
       <c r="R290" s="10" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="W290" s="5" t="s">
         <v>544</v>
@@ -28849,7 +28845,7 @@
         <v>558</v>
       </c>
       <c r="R291" s="10" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="W291" s="5" t="s">
         <v>544</v>
@@ -28911,7 +28907,7 @@
         <v>558</v>
       </c>
       <c r="R292" s="10" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="W292" s="5" t="s">
         <v>544</v>
@@ -28973,7 +28969,7 @@
         <v>607</v>
       </c>
       <c r="R293" s="10" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="W293" s="5" t="s">
         <v>544</v>
@@ -29035,7 +29031,7 @@
         <v>599</v>
       </c>
       <c r="R294" s="10" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="W294" s="5" t="s">
         <v>544</v>
@@ -29097,7 +29093,7 @@
         <v>599</v>
       </c>
       <c r="R295" s="10" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="W295" s="5" t="s">
         <v>544</v>
@@ -29159,7 +29155,7 @@
         <v>599</v>
       </c>
       <c r="R296" s="10" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="W296" s="5" t="s">
         <v>544</v>
@@ -29221,7 +29217,7 @@
         <v>599</v>
       </c>
       <c r="R297" s="10" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="W297" s="5" t="s">
         <v>544</v>
@@ -29283,7 +29279,7 @@
         <v>598</v>
       </c>
       <c r="R298" s="10" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="W298" s="5" t="s">
         <v>544</v>
@@ -29345,7 +29341,7 @@
         <v>597</v>
       </c>
       <c r="R299" s="10" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="W299" s="5" t="s">
         <v>544</v>
@@ -29407,7 +29403,7 @@
         <v>597</v>
       </c>
       <c r="R300" s="10" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="W300" s="5" t="s">
         <v>544</v>
@@ -29469,7 +29465,7 @@
         <v>597</v>
       </c>
       <c r="R301" s="10" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="W301" s="5" t="s">
         <v>544</v>
@@ -29531,7 +29527,7 @@
         <v>597</v>
       </c>
       <c r="R302" s="10" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="W302" s="5" t="s">
         <v>544</v>
@@ -29593,7 +29589,7 @@
         <v>597</v>
       </c>
       <c r="R303" s="10" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="W303" s="5" t="s">
         <v>544</v>
@@ -29655,7 +29651,7 @@
         <v>597</v>
       </c>
       <c r="R304" s="10" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="W304" s="5" t="s">
         <v>544</v>
@@ -29717,7 +29713,7 @@
         <v>597</v>
       </c>
       <c r="R305" s="10" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="W305" s="5" t="s">
         <v>544</v>
@@ -29779,7 +29775,7 @@
         <v>597</v>
       </c>
       <c r="R306" s="10" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="W306" s="5" t="s">
         <v>544</v>
@@ -29841,7 +29837,7 @@
         <v>597</v>
       </c>
       <c r="R307" s="10" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="W307" s="5" t="s">
         <v>544</v>
@@ -29903,7 +29899,7 @@
         <v>603</v>
       </c>
       <c r="R308" s="10" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="W308" s="5" t="s">
         <v>544</v>
@@ -29965,7 +29961,7 @@
         <v>608</v>
       </c>
       <c r="R309" s="10" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="W309" s="5" t="s">
         <v>544</v>
@@ -30027,7 +30023,7 @@
         <v>609</v>
       </c>
       <c r="R310" s="10" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="W310" s="5" t="s">
         <v>544</v>
@@ -30089,7 +30085,7 @@
         <v>610</v>
       </c>
       <c r="R311" s="10" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="W311" s="5" t="s">
         <v>544</v>
@@ -30151,7 +30147,7 @@
         <v>610</v>
       </c>
       <c r="R312" s="10" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="W312" s="5" t="s">
         <v>614</v>
@@ -30213,7 +30209,7 @@
         <v>610</v>
       </c>
       <c r="R313" s="10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="W313" s="5" t="s">
         <v>615</v>
@@ -30275,7 +30271,7 @@
         <v>609</v>
       </c>
       <c r="R314" s="10" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="W314" s="5" t="s">
         <v>616</v>
@@ -30337,7 +30333,7 @@
         <v>610</v>
       </c>
       <c r="R315" s="10" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="W315" s="5" t="s">
         <v>617</v>
@@ -30399,7 +30395,7 @@
         <v>611</v>
       </c>
       <c r="R316" s="10" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="W316" s="5" t="s">
         <v>617</v>
@@ -30461,7 +30457,7 @@
         <v>612</v>
       </c>
       <c r="R317" s="10" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="W317" s="5" t="s">
         <v>617</v>
@@ -30523,7 +30519,7 @@
         <v>613</v>
       </c>
       <c r="R318" s="10" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="W318" s="5" t="s">
         <v>617</v>
@@ -30585,7 +30581,7 @@
         <v>639</v>
       </c>
       <c r="R319" s="10" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="W319" s="5" t="s">
         <v>543</v>
@@ -30641,7 +30637,7 @@
         <v>640</v>
       </c>
       <c r="R320" s="10" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="W320" s="5" t="s">
         <v>543</v>
@@ -30697,7 +30693,7 @@
         <v>643</v>
       </c>
       <c r="R321" s="10" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="W321" s="5" t="s">
         <v>541</v>
@@ -30759,7 +30755,7 @@
         <v>646</v>
       </c>
       <c r="R322" s="10" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="W322" s="5" t="s">
         <v>541</v>
@@ -30797,10 +30793,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="44" t="s">
+        <v>1558</v>
+      </c>
+      <c r="J323" s="44" t="s">
         <v>1559</v>
-      </c>
-      <c r="J323" s="44" t="s">
-        <v>1560</v>
       </c>
       <c r="L323" s="44">
         <v>-28</v>
@@ -30818,10 +30814,10 @@
         <v>600</v>
       </c>
       <c r="Q323" s="44" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="R323" s="48" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="W323" s="44" t="s">
         <v>1132</v>
@@ -30862,10 +30858,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="44" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J324" s="44" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="L324" s="44">
         <v>-28</v>
@@ -30883,10 +30879,10 @@
         <v>4800</v>
       </c>
       <c r="Q324" s="44" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="R324" s="48" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="W324" s="44" t="s">
         <v>544</v>
@@ -30927,10 +30923,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="44" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="J325" s="44" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="L325" s="44">
         <v>-28</v>
@@ -30948,10 +30944,10 @@
         <v>9800</v>
       </c>
       <c r="Q325" s="44" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="R325" s="48" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="W325" s="44" t="s">
         <v>544</v>
@@ -31076,7 +31072,7 @@
         <v>959</v>
       </c>
       <c r="R327" s="48" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="W327" s="44" t="s">
         <v>960</v>
@@ -31227,7 +31223,7 @@
         <v>1464</v>
       </c>
       <c r="R329" s="48" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
@@ -31310,7 +31306,7 @@
         <v>1461</v>
       </c>
       <c r="R330" s="48" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
@@ -31393,7 +31389,7 @@
         <v>1464</v>
       </c>
       <c r="R331" s="48" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
@@ -31476,7 +31472,7 @@
         <v>1464</v>
       </c>
       <c r="R332" s="48" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
@@ -31559,7 +31555,7 @@
         <v>1464</v>
       </c>
       <c r="R333" s="48" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
@@ -31642,7 +31638,7 @@
         <v>1474</v>
       </c>
       <c r="R334" s="48" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
@@ -31725,7 +31721,7 @@
         <v>1474</v>
       </c>
       <c r="R335" s="48" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
@@ -31808,7 +31804,7 @@
         <v>1474</v>
       </c>
       <c r="R336" s="48" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
@@ -31891,7 +31887,7 @@
         <v>1479</v>
       </c>
       <c r="R337" s="48" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
@@ -31968,7 +31964,7 @@
         <v>984</v>
       </c>
       <c r="R338" s="40" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="W338" s="19" t="s">
         <v>541</v>
@@ -32042,7 +32038,7 @@
         <v>984</v>
       </c>
       <c r="R339" s="40" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="S339" s="19"/>
       <c r="T339" s="19"/>
@@ -32127,7 +32123,7 @@
         <v>984</v>
       </c>
       <c r="R340" s="40" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="S340" s="19"/>
       <c r="T340" s="19"/>
@@ -32208,7 +32204,7 @@
         <v>947</v>
       </c>
       <c r="R341" s="10" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="W341" s="5" t="s">
         <v>1051</v>
@@ -32421,7 +32417,7 @@
         <v>947</v>
       </c>
       <c r="R344" s="10" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W344" s="5" t="s">
         <v>1051</v>
@@ -32634,7 +32630,7 @@
         <v>947</v>
       </c>
       <c r="R347" s="10" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="W347" s="5" t="s">
         <v>1051</v>
@@ -32705,7 +32701,7 @@
         <v>947</v>
       </c>
       <c r="R348" s="10" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="W348" s="5" t="s">
         <v>1051</v>
@@ -32776,7 +32772,7 @@
         <v>947</v>
       </c>
       <c r="R349" s="10" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="W349" s="5" t="s">
         <v>1051</v>
@@ -32847,7 +32843,7 @@
         <v>947</v>
       </c>
       <c r="R350" s="10" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="W350" s="5" t="s">
         <v>1051</v>
@@ -32918,7 +32914,7 @@
         <v>947</v>
       </c>
       <c r="R351" s="10" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="W351" s="5" t="s">
         <v>1051</v>
@@ -32989,7 +32985,7 @@
         <v>947</v>
       </c>
       <c r="R352" s="10" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="W352" s="5" t="s">
         <v>1057</v>
@@ -33675,7 +33671,7 @@
         <v>1064</v>
       </c>
       <c r="R362" s="10" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="W362" s="5" t="s">
         <v>1077</v>
@@ -33894,7 +33890,7 @@
         <v>1104</v>
       </c>
       <c r="R365" s="10" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="W365" s="5" t="s">
         <v>588</v>
@@ -33959,7 +33955,7 @@
         <v>1104</v>
       </c>
       <c r="R366" s="10" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="W366" s="5" t="s">
         <v>588</v>
@@ -34024,7 +34020,7 @@
         <v>1104</v>
       </c>
       <c r="R367" s="10" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="W367" s="5" t="s">
         <v>588</v>
@@ -34089,7 +34085,7 @@
         <v>1104</v>
       </c>
       <c r="R368" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="W368" s="5" t="s">
         <v>588</v>
@@ -34154,7 +34150,7 @@
         <v>1123</v>
       </c>
       <c r="R369" s="10" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="W369" s="5" t="s">
         <v>588</v>
@@ -34219,7 +34215,7 @@
         <v>1115</v>
       </c>
       <c r="R370" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="W370" s="5" t="s">
         <v>588</v>
@@ -34281,7 +34277,7 @@
         <v>1115</v>
       </c>
       <c r="R371" s="10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="W371" s="5" t="s">
         <v>555</v>
@@ -34343,7 +34339,7 @@
         <v>1115</v>
       </c>
       <c r="R372" s="10" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="W372" s="5" t="s">
         <v>1113</v>
@@ -34405,7 +34401,7 @@
         <v>1115</v>
       </c>
       <c r="R373" s="10" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="W373" s="5" t="s">
         <v>557</v>
@@ -34470,7 +34466,7 @@
         <v>1124</v>
       </c>
       <c r="R374" s="10" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="W374" s="5" t="s">
         <v>1119</v>
@@ -34538,7 +34534,7 @@
         <v>1124</v>
       </c>
       <c r="R375" s="10" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="W375" s="5" t="s">
         <v>588</v>
@@ -34606,7 +34602,7 @@
         <v>1145</v>
       </c>
       <c r="R376" s="10" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="W376" s="5" t="s">
         <v>1130</v>
@@ -34674,7 +34670,7 @@
         <v>1145</v>
       </c>
       <c r="R377" s="10" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="W377" s="5" t="s">
         <v>1132</v>
@@ -34742,7 +34738,7 @@
         <v>1145</v>
       </c>
       <c r="R378" s="10" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="W378" s="5" t="s">
         <v>1135</v>
@@ -34810,7 +34806,7 @@
         <v>1145</v>
       </c>
       <c r="R379" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="W379" s="5" t="s">
         <v>1113</v>
@@ -34878,7 +34874,7 @@
         <v>1145</v>
       </c>
       <c r="R380" s="10" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="W380" s="5" t="s">
         <v>1136</v>
@@ -34946,7 +34942,7 @@
         <v>1145</v>
       </c>
       <c r="R381" s="10" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="W381" s="5" t="s">
         <v>1130</v>
@@ -35014,7 +35010,7 @@
         <v>1145</v>
       </c>
       <c r="R382" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="W382" s="5" t="s">
         <v>1132</v>
@@ -35082,7 +35078,7 @@
         <v>1145</v>
       </c>
       <c r="R383" s="10" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="W383" s="5" t="s">
         <v>1174</v>
@@ -35150,7 +35146,7 @@
         <v>1145</v>
       </c>
       <c r="R384" s="10" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="W384" s="5" t="s">
         <v>1141</v>
@@ -35218,7 +35214,7 @@
         <v>1145</v>
       </c>
       <c r="R385" s="10" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="W385" s="5" t="s">
         <v>1136</v>
@@ -35287,7 +35283,7 @@
         <v>1163</v>
       </c>
       <c r="R386" s="61" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="W386" s="19" t="s">
         <v>1175</v>
@@ -35356,7 +35352,7 @@
         <v>1165</v>
       </c>
       <c r="R387" s="61" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="W387" s="19" t="s">
         <v>1175</v>
@@ -35494,7 +35490,7 @@
         <v>1167</v>
       </c>
       <c r="R389" s="94" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="W389" s="19" t="s">
         <v>1175</v>
@@ -35563,7 +35559,7 @@
         <v>1168</v>
       </c>
       <c r="R390" s="94" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="W390" s="19" t="s">
         <v>1175</v>
@@ -35632,7 +35628,7 @@
         <v>1169</v>
       </c>
       <c r="R391" s="94" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="W391" s="19" t="s">
         <v>1175</v>
@@ -35701,7 +35697,7 @@
         <v>1164</v>
       </c>
       <c r="R392" s="61" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="W392" s="19" t="s">
         <v>1175</v>
@@ -35839,7 +35835,7 @@
         <v>1171</v>
       </c>
       <c r="R394" s="61" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="W394" s="19" t="s">
         <v>1175</v>
@@ -35905,7 +35901,7 @@
         <v>1195</v>
       </c>
       <c r="R395" s="10" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="W395" s="52" t="s">
         <v>544</v>
@@ -35968,7 +35964,7 @@
         <v>1189</v>
       </c>
       <c r="R396" s="10" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="W396" s="52" t="s">
         <v>544</v>
@@ -36031,7 +36027,7 @@
         <v>1189</v>
       </c>
       <c r="R397" s="10" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="W397" s="52" t="s">
         <v>544</v>
@@ -36094,7 +36090,7 @@
         <v>1189</v>
       </c>
       <c r="R398" s="10" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="W398" s="52" t="s">
         <v>544</v>
@@ -36157,7 +36153,7 @@
         <v>1189</v>
       </c>
       <c r="R399" s="10" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="W399" s="52" t="s">
         <v>544</v>
@@ -36220,7 +36216,7 @@
         <v>1189</v>
       </c>
       <c r="R400" s="10" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="W400" s="52" t="s">
         <v>544</v>
@@ -36283,7 +36279,7 @@
         <v>1199</v>
       </c>
       <c r="R401" s="5" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="W401" s="53" t="s">
         <v>1200</v>
@@ -36349,7 +36345,7 @@
         <v>1199</v>
       </c>
       <c r="R402" s="5" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="W402" s="53" t="s">
         <v>1200</v>
@@ -36415,7 +36411,7 @@
         <v>1204</v>
       </c>
       <c r="R403" s="5" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="W403" s="53" t="s">
         <v>1200</v>
@@ -36481,7 +36477,7 @@
         <v>1206</v>
       </c>
       <c r="R404" s="5" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="W404" s="53" t="s">
         <v>1200</v>
@@ -36547,7 +36543,7 @@
         <v>1206</v>
       </c>
       <c r="R405" s="5" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="W405" s="53" t="s">
         <v>1200</v>
@@ -36613,7 +36609,7 @@
         <v>1209</v>
       </c>
       <c r="R406" s="5" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="W406" s="53" t="s">
         <v>1200</v>
@@ -36679,7 +36675,7 @@
         <v>1211</v>
       </c>
       <c r="R407" s="5" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="W407" s="53" t="s">
         <v>1200</v>
@@ -36745,7 +36741,7 @@
         <v>1244</v>
       </c>
       <c r="R408" s="10" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="W408" s="60" t="s">
         <v>1245</v>
@@ -36811,7 +36807,7 @@
         <v>1244</v>
       </c>
       <c r="R409" s="10" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="W409" s="60" t="s">
         <v>1246</v>
@@ -36877,7 +36873,7 @@
         <v>1244</v>
       </c>
       <c r="R410" s="10" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="W410" s="60" t="s">
         <v>1246</v>
@@ -36943,7 +36939,7 @@
         <v>1244</v>
       </c>
       <c r="R411" s="10" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="W411" s="60" t="s">
         <v>1247</v>
@@ -37009,7 +37005,7 @@
         <v>1244</v>
       </c>
       <c r="R412" s="10" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="W412" s="60" t="s">
         <v>1248</v>
@@ -37075,7 +37071,7 @@
         <v>1244</v>
       </c>
       <c r="R413" s="10" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="W413" s="60" t="s">
         <v>1246</v>
@@ -37122,7 +37118,7 @@
         <v>1250</v>
       </c>
       <c r="H414" s="5" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="L414" s="81">
         <v>-4</v>
@@ -37143,7 +37139,7 @@
         <v>90</v>
       </c>
       <c r="R414" s="86" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="W414" s="81" t="s">
         <v>541</v>
@@ -38142,13 +38138,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="44" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I430" s="44" t="s">
+        <v>1523</v>
+      </c>
+      <c r="J430" s="44" t="s">
         <v>1566</v>
-      </c>
-      <c r="I430" s="44" t="s">
-        <v>1524</v>
-      </c>
-      <c r="J430" s="44" t="s">
-        <v>1567</v>
       </c>
       <c r="L430" s="44">
         <v>-28</v>
@@ -38169,7 +38165,7 @@
         <v>1255</v>
       </c>
       <c r="R430" s="48" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="W430" s="44" t="s">
         <v>1132</v>
@@ -38210,13 +38206,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="44" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="I431" s="44" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="J431" s="44" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="L431" s="44">
         <v>-28</v>
@@ -38237,7 +38233,7 @@
         <v>1255</v>
       </c>
       <c r="R431" s="48" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="W431" s="44" t="s">
         <v>544</v>
@@ -38278,13 +38274,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="44" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="I432" s="44" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="J432" s="44" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="L432" s="44">
         <v>-28</v>
@@ -38305,7 +38301,7 @@
         <v>1255</v>
       </c>
       <c r="R432" s="48" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="W432" s="44" t="s">
         <v>544</v>
@@ -38346,13 +38342,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="44" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="I433" s="44" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="J433" s="44" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="L433" s="44">
         <v>-28</v>
@@ -38370,10 +38366,10 @@
         <v>600</v>
       </c>
       <c r="Q433" s="44" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="R433" s="48" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="W433" s="44" t="s">
         <v>544</v>
@@ -41802,13 +41798,13 @@
         <v>1</v>
       </c>
       <c r="G486" s="19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I486" s="19" t="s">
         <v>1807</v>
       </c>
-      <c r="I486" s="19" t="s">
+      <c r="J486" s="19" t="s">
         <v>1808</v>
-      </c>
-      <c r="J486" s="19" t="s">
-        <v>1809</v>
       </c>
       <c r="L486" s="19">
         <v>-31</v>
@@ -41826,10 +41822,10 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="19" t="s">
+        <v>1809</v>
+      </c>
+      <c r="R486" s="40" t="s">
         <v>1810</v>
-      </c>
-      <c r="R486" s="40" t="s">
-        <v>1811</v>
       </c>
       <c r="W486" s="19" t="s">
         <v>544</v>
@@ -41867,13 +41863,13 @@
         <v>1</v>
       </c>
       <c r="G487" s="19" t="s">
+        <v>1811</v>
+      </c>
+      <c r="I487" s="19" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J487" s="19" t="s">
         <v>1812</v>
-      </c>
-      <c r="I487" s="19" t="s">
-        <v>1808</v>
-      </c>
-      <c r="J487" s="19" t="s">
-        <v>1813</v>
       </c>
       <c r="L487" s="19">
         <v>-31</v>
@@ -41891,10 +41887,10 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="19" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="R487" s="40" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="W487" s="19" t="s">
         <v>544</v>
@@ -41932,13 +41928,13 @@
         <v>1</v>
       </c>
       <c r="G488" s="19" t="s">
+        <v>1814</v>
+      </c>
+      <c r="I488" s="19" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J488" s="19" t="s">
         <v>1815</v>
-      </c>
-      <c r="I488" s="19" t="s">
-        <v>1808</v>
-      </c>
-      <c r="J488" s="19" t="s">
-        <v>1816</v>
       </c>
       <c r="L488" s="19">
         <v>-31</v>
@@ -41956,10 +41952,10 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="19" t="s">
+        <v>1816</v>
+      </c>
+      <c r="R488" s="40" t="s">
         <v>1817</v>
-      </c>
-      <c r="R488" s="40" t="s">
-        <v>1818</v>
       </c>
       <c r="W488" s="19" t="s">
         <v>544</v>
@@ -41997,13 +41993,13 @@
         <v>1</v>
       </c>
       <c r="G489" s="19" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I489" s="19" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J489" s="19" t="s">
         <v>1819</v>
-      </c>
-      <c r="I489" s="19" t="s">
-        <v>1808</v>
-      </c>
-      <c r="J489" s="19" t="s">
-        <v>1820</v>
       </c>
       <c r="L489" s="19">
         <v>-31</v>
@@ -42021,10 +42017,10 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="19" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="R489" s="40" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="W489" s="19" t="s">
         <v>544</v>
@@ -42065,10 +42061,10 @@
         <v>1202</v>
       </c>
       <c r="I490" s="19" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="J490" s="19" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="L490" s="19">
         <v>-31</v>
@@ -42086,10 +42082,10 @@
         <v>29800</v>
       </c>
       <c r="Q490" s="19" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="R490" s="40" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="W490" s="19" t="s">
         <v>544</v>
@@ -42127,13 +42123,13 @@
         <v>1</v>
       </c>
       <c r="G491" s="19" t="s">
+        <v>1823</v>
+      </c>
+      <c r="I491" s="19" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J491" s="19" t="s">
         <v>1824</v>
-      </c>
-      <c r="I491" s="19" t="s">
-        <v>1808</v>
-      </c>
-      <c r="J491" s="19" t="s">
-        <v>1825</v>
       </c>
       <c r="L491" s="19">
         <v>-31</v>
@@ -42151,7 +42147,7 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="19" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="R491" s="40" t="s">
         <v>1221</v>
@@ -42192,13 +42188,13 @@
         <v>1</v>
       </c>
       <c r="G492" s="19" t="s">
+        <v>1826</v>
+      </c>
+      <c r="I492" s="19" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J492" s="19" t="s">
         <v>1827</v>
-      </c>
-      <c r="I492" s="19" t="s">
-        <v>1808</v>
-      </c>
-      <c r="J492" s="19" t="s">
-        <v>1828</v>
       </c>
       <c r="L492" s="19">
         <v>-31</v>
@@ -42210,19 +42206,19 @@
         <v>0</v>
       </c>
       <c r="O492" s="19" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="P492" s="19">
         <v>99800</v>
       </c>
       <c r="Q492" s="19" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="R492" s="40" t="s">
         <v>1222</v>
       </c>
       <c r="W492" s="19" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="X492" s="19">
         <v>9999999</v>
@@ -43306,7 +43302,7 @@
         <v>31</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>32</v>
@@ -43392,10 +43388,10 @@
         <v>3</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="T2" s="34" t="s">
         <v>912</v>
@@ -43463,10 +43459,10 @@
         <v>4</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="T3" s="34" t="s">
         <v>912</v>
@@ -43534,10 +43530,10 @@
         <v>5</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="T4" s="34" t="s">
         <v>913</v>
@@ -43605,10 +43601,10 @@
         <v>6</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="T5" s="34" t="s">
         <v>913</v>
@@ -43676,10 +43672,10 @@
         <v>7</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="T6" s="34" t="s">
         <v>913</v>
@@ -43747,10 +43743,10 @@
         <v>9</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="T7" s="34" t="s">
         <v>913</v>
@@ -43813,10 +43809,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="T8" s="34" t="s">
         <v>914</v>
@@ -43879,10 +43875,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="U9" s="11">
         <v>5000</v>
@@ -43945,10 +43941,10 @@
         <v>1</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="U10" s="11">
         <v>1000</v>
@@ -44011,10 +44007,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>915</v>
@@ -44082,10 +44078,10 @@
         <v>9</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="T12" s="34" t="s">
         <v>913</v>
@@ -44153,10 +44149,10 @@
         <v>10</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="T13" s="34" t="s">
         <v>915</v>
@@ -44224,10 +44220,10 @@
         <v>11</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="T14" s="34" t="s">
         <v>916</v>
@@ -44293,10 +44289,10 @@
         <v>0</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="R15" s="34" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="T15" s="34"/>
       <c r="U15" s="11">
@@ -44365,10 +44361,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="T16" s="34" t="s">
         <v>917</v>
@@ -44431,10 +44427,10 @@
         <v>4</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="T17" s="34" t="s">
         <v>918</v>
@@ -44497,10 +44493,10 @@
         <v>5</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="T18" s="34" t="s">
         <v>915</v>
@@ -44563,10 +44559,10 @@
         <v>6</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="T19" s="34" t="s">
         <v>919</v>
@@ -44629,10 +44625,10 @@
         <v>7</v>
       </c>
       <c r="Q20" s="34" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="T20" s="34" t="s">
         <v>913</v>
@@ -44695,10 +44691,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="T21" s="36" t="s">
         <v>912</v>
@@ -44761,10 +44757,10 @@
         <v>2</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="T22" s="34"/>
       <c r="U22" s="11">
@@ -44825,10 +44821,10 @@
         <v>1</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="R23" s="34" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="T23" s="34"/>
       <c r="U23" s="11">
@@ -44892,10 +44888,10 @@
         <v>0</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="R24" s="34" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="T24" s="34"/>
       <c r="U24" s="11">
@@ -44964,10 +44960,10 @@
         <v>8</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="T25" s="34" t="s">
         <v>920</v>

--- a/config_12.22/shoping_config_cjj.xlsx
+++ b/config_12.22/shoping_config_cjj.xlsx
@@ -6885,10 +6885,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>首充加赠2460万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>首充加赠5290万</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7894,6 +7890,10 @@
   </si>
   <si>
     <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>首充加赠2640万</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10824,10 +10824,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="M60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q77" sqref="Q77"/>
+      <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14708,7 +14708,7 @@
         <v>90</v>
       </c>
       <c r="R67" s="86" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="W67" s="81" t="s">
         <v>541</v>
@@ -14767,7 +14767,7 @@
         <v>90</v>
       </c>
       <c r="R68" s="86" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="W68" s="81" t="s">
         <v>541</v>
@@ -14885,7 +14885,7 @@
         <v>90</v>
       </c>
       <c r="R70" s="86" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="W70" s="81" t="s">
         <v>541</v>
@@ -14923,7 +14923,7 @@
         <v>242</v>
       </c>
       <c r="H71" s="85" t="s">
-        <v>1577</v>
+        <v>1829</v>
       </c>
       <c r="L71" s="81">
         <v>-4</v>
@@ -14944,7 +14944,7 @@
         <v>90</v>
       </c>
       <c r="R71" s="86" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="W71" s="81" t="s">
         <v>541</v>
@@ -15299,7 +15299,7 @@
         <v>505</v>
       </c>
       <c r="R77" s="40" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="W77" s="19" t="s">
         <v>541</v>
@@ -15364,7 +15364,7 @@
         <v>1514</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="W78" s="19" t="s">
         <v>541</v>
@@ -15429,7 +15429,7 @@
         <v>250</v>
       </c>
       <c r="R79" s="10" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="W79" s="5" t="s">
         <v>541</v>
@@ -15494,7 +15494,7 @@
         <v>250</v>
       </c>
       <c r="R80" s="10" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="W80" s="5" t="s">
         <v>541</v>
@@ -15562,7 +15562,7 @@
         <v>1514</v>
       </c>
       <c r="R81" s="40" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="W81" s="19" t="s">
         <v>541</v>
@@ -15627,7 +15627,7 @@
         <v>254</v>
       </c>
       <c r="R82" s="10" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="W82" s="5" t="s">
         <v>541</v>
@@ -15683,7 +15683,7 @@
         <v>1000</v>
       </c>
       <c r="R83" s="10" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="W83" s="5" t="s">
         <v>542</v>
@@ -15739,7 +15739,7 @@
         <v>934</v>
       </c>
       <c r="R84" s="10" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="W84" s="5" t="s">
         <v>542</v>
@@ -15795,7 +15795,7 @@
         <v>1001</v>
       </c>
       <c r="R85" s="10" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="W85" s="5" t="s">
         <v>543</v>
@@ -15902,7 +15902,7 @@
         <v>1001</v>
       </c>
       <c r="R87" s="10" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="W87" s="5" t="s">
         <v>543</v>
@@ -15958,7 +15958,7 @@
         <v>258</v>
       </c>
       <c r="R88" s="10" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="W88" s="5" t="s">
         <v>542</v>
@@ -16014,7 +16014,7 @@
         <v>129</v>
       </c>
       <c r="R89" s="10" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="W89" s="5" t="s">
         <v>542</v>
@@ -16070,7 +16070,7 @@
         <v>222</v>
       </c>
       <c r="R90" s="10" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="W90" s="5" t="s">
         <v>542</v>
@@ -16182,7 +16182,7 @@
         <v>934</v>
       </c>
       <c r="R92" s="10" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="W92" s="5" t="s">
         <v>542</v>
@@ -16238,7 +16238,7 @@
         <v>265</v>
       </c>
       <c r="R93" s="10" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="W93" s="5" t="s">
         <v>542</v>
@@ -16291,7 +16291,7 @@
         <v>90</v>
       </c>
       <c r="R94" s="86" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="W94" s="85" t="s">
         <v>541</v>
@@ -16347,7 +16347,7 @@
         <v>218</v>
       </c>
       <c r="R95" s="10" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="S95" s="7"/>
       <c r="U95" s="7"/>
@@ -16711,7 +16711,7 @@
         <v>583</v>
       </c>
       <c r="R101" s="40" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="W101" s="19" t="s">
         <v>542</v>
@@ -16774,7 +16774,7 @@
         <v>583</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="W102" s="19" t="s">
         <v>542</v>
@@ -16837,7 +16837,7 @@
         <v>583</v>
       </c>
       <c r="R103" s="40" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="W103" s="19" t="s">
         <v>542</v>
@@ -16900,7 +16900,7 @@
         <v>583</v>
       </c>
       <c r="R104" s="40" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="W104" s="19" t="s">
         <v>542</v>
@@ -16963,7 +16963,7 @@
         <v>582</v>
       </c>
       <c r="R105" s="40" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="W105" s="19" t="s">
         <v>542</v>
@@ -17026,7 +17026,7 @@
         <v>583</v>
       </c>
       <c r="R106" s="40" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="W106" s="19" t="s">
         <v>542</v>
@@ -17089,7 +17089,7 @@
         <v>582</v>
       </c>
       <c r="R107" s="40" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="W107" s="19" t="s">
         <v>542</v>
@@ -17152,7 +17152,7 @@
         <v>583</v>
       </c>
       <c r="R108" s="40" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="W108" s="19" t="s">
         <v>542</v>
@@ -18307,7 +18307,7 @@
         <v>332</v>
       </c>
       <c r="H128" s="85" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="L128" s="85">
         <v>-10</v>
@@ -18328,7 +18328,7 @@
         <v>90</v>
       </c>
       <c r="R128" s="86" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="W128" s="85" t="s">
         <v>541</v>
@@ -18366,7 +18366,7 @@
         <v>531</v>
       </c>
       <c r="H129" s="85" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="L129" s="85">
         <v>-11</v>
@@ -18387,7 +18387,7 @@
         <v>90</v>
       </c>
       <c r="R129" s="86" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="W129" s="85" t="s">
         <v>541</v>
@@ -18629,7 +18629,7 @@
         <v>295</v>
       </c>
       <c r="R133" s="10" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="W133" s="5" t="s">
         <v>544</v>
@@ -18691,7 +18691,7 @@
         <v>308</v>
       </c>
       <c r="R134" s="10" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="W134" s="5" t="s">
         <v>544</v>
@@ -18753,7 +18753,7 @@
         <v>311</v>
       </c>
       <c r="R135" s="10" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="W135" s="5" t="s">
         <v>544</v>
@@ -18817,7 +18817,7 @@
         <v>160</v>
       </c>
       <c r="R136" s="10" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="W136" s="5" t="s">
         <v>544</v>
@@ -18878,7 +18878,7 @@
         <v>160</v>
       </c>
       <c r="R137" s="10" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="W137" s="5" t="s">
         <v>544</v>
@@ -18939,7 +18939,7 @@
         <v>160</v>
       </c>
       <c r="R138" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="W138" s="5" t="s">
         <v>544</v>
@@ -19000,7 +19000,7 @@
         <v>160</v>
       </c>
       <c r="R139" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="W139" s="5" t="s">
         <v>544</v>
@@ -19061,7 +19061,7 @@
         <v>160</v>
       </c>
       <c r="R140" s="10" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="W140" s="5" t="s">
         <v>544</v>
@@ -19122,7 +19122,7 @@
         <v>160</v>
       </c>
       <c r="R141" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="W141" s="5" t="s">
         <v>544</v>
@@ -19372,7 +19372,7 @@
         <v>348</v>
       </c>
       <c r="R145" s="10" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="T145" s="5" t="s">
         <v>90</v>
@@ -19439,7 +19439,7 @@
         <v>278</v>
       </c>
       <c r="R146" s="10" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="T146" s="5" t="s">
         <v>160</v>
@@ -19506,7 +19506,7 @@
         <v>278</v>
       </c>
       <c r="R147" s="10" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="T147" s="5" t="s">
         <v>160</v>
@@ -19573,7 +19573,7 @@
         <v>278</v>
       </c>
       <c r="R148" s="10" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="T148" s="5" t="s">
         <v>160</v>
@@ -19640,7 +19640,7 @@
         <v>278</v>
       </c>
       <c r="R149" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T149" s="5" t="s">
         <v>160</v>
@@ -19888,7 +19888,7 @@
         <v>348</v>
       </c>
       <c r="R153" s="10" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="T153" s="5" t="s">
         <v>90</v>
@@ -19950,7 +19950,7 @@
         <v>348</v>
       </c>
       <c r="R154" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="T154" s="5" t="s">
         <v>90</v>
@@ -20012,7 +20012,7 @@
         <v>348</v>
       </c>
       <c r="R155" s="10" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="T155" s="5" t="s">
         <v>90</v>
@@ -20074,7 +20074,7 @@
         <v>348</v>
       </c>
       <c r="R156" s="10" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="T156" s="5" t="s">
         <v>90</v>
@@ -20136,7 +20136,7 @@
         <v>348</v>
       </c>
       <c r="R157" s="10" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="T157" s="5" t="s">
         <v>90</v>
@@ -20573,7 +20573,7 @@
         <v>220</v>
       </c>
       <c r="R164" s="10" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="W164" s="5" t="s">
         <v>541</v>
@@ -20821,7 +20821,7 @@
         <v>979</v>
       </c>
       <c r="R168" s="40" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="W168" s="19" t="s">
         <v>541</v>
@@ -20886,7 +20886,7 @@
         <v>979</v>
       </c>
       <c r="R169" s="40" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W169" s="19" t="s">
         <v>617</v>
@@ -20948,7 +20948,7 @@
         <v>979</v>
       </c>
       <c r="R170" s="40" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W170" s="19" t="s">
         <v>617</v>
@@ -21081,7 +21081,7 @@
         <v>1532</v>
       </c>
       <c r="R172" s="48" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="W172" s="44" t="s">
         <v>544</v>
@@ -21149,7 +21149,7 @@
         <v>1532</v>
       </c>
       <c r="R173" s="48" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="W173" s="44" t="s">
         <v>544</v>
@@ -21217,7 +21217,7 @@
         <v>1532</v>
       </c>
       <c r="R174" s="48" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="W174" s="44" t="s">
         <v>544</v>
@@ -21285,7 +21285,7 @@
         <v>1539</v>
       </c>
       <c r="R175" s="48" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="W175" s="44" t="s">
         <v>544</v>
@@ -21353,7 +21353,7 @@
         <v>1539</v>
       </c>
       <c r="R176" s="48" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="W176" s="44" t="s">
         <v>544</v>
@@ -21421,7 +21421,7 @@
         <v>1539</v>
       </c>
       <c r="R177" s="48" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="W177" s="44" t="s">
         <v>544</v>
@@ -21489,7 +21489,7 @@
         <v>1539</v>
       </c>
       <c r="R178" s="48" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="W178" s="44" t="s">
         <v>544</v>
@@ -21557,7 +21557,7 @@
         <v>1539</v>
       </c>
       <c r="R179" s="48" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="W179" s="44" t="s">
         <v>544</v>
@@ -21625,7 +21625,7 @@
         <v>1539</v>
       </c>
       <c r="R180" s="48" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="W180" s="44" t="s">
         <v>544</v>
@@ -21693,7 +21693,7 @@
         <v>1539</v>
       </c>
       <c r="R181" s="48" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="W181" s="44" t="s">
         <v>544</v>
@@ -21761,7 +21761,7 @@
         <v>1539</v>
       </c>
       <c r="R182" s="48" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="W182" s="44" t="s">
         <v>544</v>
@@ -21829,7 +21829,7 @@
         <v>1539</v>
       </c>
       <c r="R183" s="48" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="W183" s="44" t="s">
         <v>544</v>
@@ -21897,7 +21897,7 @@
         <v>1539</v>
       </c>
       <c r="R184" s="48" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="W184" s="44" t="s">
         <v>544</v>
@@ -21965,7 +21965,7 @@
         <v>1539</v>
       </c>
       <c r="R185" s="48" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="W185" s="44" t="s">
         <v>544</v>
@@ -22030,7 +22030,7 @@
         <v>464</v>
       </c>
       <c r="R186" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="T186" s="5" t="s">
         <v>330</v>
@@ -25994,7 +25994,7 @@
         <v>160</v>
       </c>
       <c r="R247" s="10" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="W247" s="5" t="s">
         <v>544</v>
@@ -26061,7 +26061,7 @@
         <v>160</v>
       </c>
       <c r="R248" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="W248" s="5" t="s">
         <v>544</v>
@@ -26128,7 +26128,7 @@
         <v>160</v>
       </c>
       <c r="R249" s="10" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="W249" s="5" t="s">
         <v>544</v>
@@ -26195,7 +26195,7 @@
         <v>461</v>
       </c>
       <c r="R250" s="40" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="W250" s="19" t="s">
         <v>541</v>
@@ -26257,7 +26257,7 @@
         <v>991</v>
       </c>
       <c r="R251" s="10" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="T251" s="5" t="s">
         <v>330</v>
@@ -26325,7 +26325,7 @@
         <v>461</v>
       </c>
       <c r="R252" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="W252" s="5" t="s">
         <v>617</v>
@@ -26387,7 +26387,7 @@
         <v>1196</v>
       </c>
       <c r="R253" s="10" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="W253" s="5" t="s">
         <v>544</v>
@@ -26449,7 +26449,7 @@
         <v>503</v>
       </c>
       <c r="R254" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="W254" s="5" t="s">
         <v>544</v>
@@ -26514,7 +26514,7 @@
         <v>484</v>
       </c>
       <c r="R255" s="10" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="W255" s="5" t="s">
         <v>544</v>
@@ -26579,7 +26579,7 @@
         <v>514</v>
       </c>
       <c r="R256" s="10" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="W256" s="5" t="s">
         <v>544</v>
@@ -26644,7 +26644,7 @@
         <v>600</v>
       </c>
       <c r="R257" s="10" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="T257" s="5" t="s">
         <v>505</v>
@@ -26712,7 +26712,7 @@
         <v>514</v>
       </c>
       <c r="R258" s="10" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="W258" s="5" t="s">
         <v>544</v>
@@ -26777,7 +26777,7 @@
         <v>514</v>
       </c>
       <c r="R259" s="10" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="W259" s="5" t="s">
         <v>544</v>
@@ -26842,7 +26842,7 @@
         <v>514</v>
       </c>
       <c r="R260" s="10" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="W260" s="5" t="s">
         <v>544</v>
@@ -26907,7 +26907,7 @@
         <v>515</v>
       </c>
       <c r="R261" s="10" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="W261" s="5" t="s">
         <v>544</v>
@@ -26972,7 +26972,7 @@
         <v>514</v>
       </c>
       <c r="R262" s="10" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="W262" s="5" t="s">
         <v>544</v>
@@ -27037,7 +27037,7 @@
         <v>516</v>
       </c>
       <c r="R263" s="10" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="W263" s="5" t="s">
         <v>544</v>
@@ -27102,7 +27102,7 @@
         <v>517</v>
       </c>
       <c r="R264" s="10" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="W264" s="5" t="s">
         <v>544</v>
@@ -27167,7 +27167,7 @@
         <v>515</v>
       </c>
       <c r="R265" s="10" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="W265" s="5" t="s">
         <v>544</v>
@@ -27232,7 +27232,7 @@
         <v>521</v>
       </c>
       <c r="R266" s="10" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="W266" s="5" t="s">
         <v>544</v>
@@ -27297,7 +27297,7 @@
         <v>518</v>
       </c>
       <c r="R267" s="10" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="W267" s="5" t="s">
         <v>544</v>
@@ -27362,7 +27362,7 @@
         <v>517</v>
       </c>
       <c r="R268" s="10" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="W268" s="5" t="s">
         <v>544</v>
@@ -27427,7 +27427,7 @@
         <v>514</v>
       </c>
       <c r="R269" s="10" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="W269" s="5" t="s">
         <v>544</v>
@@ -27492,7 +27492,7 @@
         <v>519</v>
       </c>
       <c r="R270" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="W270" s="5" t="s">
         <v>544</v>
@@ -27557,7 +27557,7 @@
         <v>520</v>
       </c>
       <c r="R271" s="10" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="W271" s="5" t="s">
         <v>544</v>
@@ -27622,7 +27622,7 @@
         <v>514</v>
       </c>
       <c r="R272" s="10" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="W272" s="5" t="s">
         <v>544</v>
@@ -27669,7 +27669,7 @@
         <v>534</v>
       </c>
       <c r="H273" s="81" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="L273" s="85">
         <v>-10</v>
@@ -27690,7 +27690,7 @@
         <v>90</v>
       </c>
       <c r="R273" s="82" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="W273" s="85" t="s">
         <v>541</v>
@@ -27751,7 +27751,7 @@
         <v>540</v>
       </c>
       <c r="R274" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="S274" s="5"/>
       <c r="T274" s="5"/>
@@ -27823,7 +27823,7 @@
         <v>579</v>
       </c>
       <c r="R275" s="10" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="W275" s="5" t="s">
         <v>541</v>
@@ -27888,7 +27888,7 @@
         <v>558</v>
       </c>
       <c r="R276" s="10" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="W276" s="5" t="s">
         <v>544</v>
@@ -27953,7 +27953,7 @@
         <v>558</v>
       </c>
       <c r="R277" s="10" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="W277" s="5" t="s">
         <v>555</v>
@@ -28018,7 +28018,7 @@
         <v>558</v>
       </c>
       <c r="R278" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="W278" s="5" t="s">
         <v>556</v>
@@ -28083,7 +28083,7 @@
         <v>558</v>
       </c>
       <c r="R279" s="10" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="W279" s="5" t="s">
         <v>557</v>
@@ -28148,7 +28148,7 @@
         <v>558</v>
       </c>
       <c r="R280" s="10" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="W280" s="5" t="s">
         <v>541</v>
@@ -28213,7 +28213,7 @@
         <v>558</v>
       </c>
       <c r="R281" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="W281" s="5" t="s">
         <v>544</v>
@@ -28278,7 +28278,7 @@
         <v>558</v>
       </c>
       <c r="R282" s="10" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="W282" s="5" t="s">
         <v>555</v>
@@ -28343,7 +28343,7 @@
         <v>558</v>
       </c>
       <c r="R283" s="10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="W283" s="5" t="s">
         <v>556</v>
@@ -28408,7 +28408,7 @@
         <v>558</v>
       </c>
       <c r="R284" s="10" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="W284" s="5" t="s">
         <v>557</v>
@@ -28473,7 +28473,7 @@
         <v>558</v>
       </c>
       <c r="R285" s="10" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="W285" s="5" t="s">
         <v>544</v>
@@ -28535,7 +28535,7 @@
         <v>558</v>
       </c>
       <c r="R286" s="10" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="W286" s="5" t="s">
         <v>544</v>
@@ -28597,7 +28597,7 @@
         <v>558</v>
       </c>
       <c r="R287" s="10" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="W287" s="5" t="s">
         <v>544</v>
@@ -28659,7 +28659,7 @@
         <v>558</v>
       </c>
       <c r="R288" s="10" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="W288" s="5" t="s">
         <v>544</v>
@@ -28721,7 +28721,7 @@
         <v>558</v>
       </c>
       <c r="R289" s="10" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="W289" s="5" t="s">
         <v>544</v>
@@ -28783,7 +28783,7 @@
         <v>558</v>
       </c>
       <c r="R290" s="10" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="W290" s="5" t="s">
         <v>544</v>
@@ -28845,7 +28845,7 @@
         <v>558</v>
       </c>
       <c r="R291" s="10" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="W291" s="5" t="s">
         <v>544</v>
@@ -28907,7 +28907,7 @@
         <v>558</v>
       </c>
       <c r="R292" s="10" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="W292" s="5" t="s">
         <v>544</v>
@@ -28969,7 +28969,7 @@
         <v>607</v>
       </c>
       <c r="R293" s="10" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="W293" s="5" t="s">
         <v>544</v>
@@ -29031,7 +29031,7 @@
         <v>599</v>
       </c>
       <c r="R294" s="10" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="W294" s="5" t="s">
         <v>544</v>
@@ -29093,7 +29093,7 @@
         <v>599</v>
       </c>
       <c r="R295" s="10" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="W295" s="5" t="s">
         <v>544</v>
@@ -29155,7 +29155,7 @@
         <v>599</v>
       </c>
       <c r="R296" s="10" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="W296" s="5" t="s">
         <v>544</v>
@@ -29217,7 +29217,7 @@
         <v>599</v>
       </c>
       <c r="R297" s="10" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="W297" s="5" t="s">
         <v>544</v>
@@ -29279,7 +29279,7 @@
         <v>598</v>
       </c>
       <c r="R298" s="10" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="W298" s="5" t="s">
         <v>544</v>
@@ -29341,7 +29341,7 @@
         <v>597</v>
       </c>
       <c r="R299" s="10" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="W299" s="5" t="s">
         <v>544</v>
@@ -29403,7 +29403,7 @@
         <v>597</v>
       </c>
       <c r="R300" s="10" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="W300" s="5" t="s">
         <v>544</v>
@@ -29465,7 +29465,7 @@
         <v>597</v>
       </c>
       <c r="R301" s="10" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="W301" s="5" t="s">
         <v>544</v>
@@ -29527,7 +29527,7 @@
         <v>597</v>
       </c>
       <c r="R302" s="10" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="W302" s="5" t="s">
         <v>544</v>
@@ -29589,7 +29589,7 @@
         <v>597</v>
       </c>
       <c r="R303" s="10" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="W303" s="5" t="s">
         <v>544</v>
@@ -29651,7 +29651,7 @@
         <v>597</v>
       </c>
       <c r="R304" s="10" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="W304" s="5" t="s">
         <v>544</v>
@@ -29713,7 +29713,7 @@
         <v>597</v>
       </c>
       <c r="R305" s="10" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="W305" s="5" t="s">
         <v>544</v>
@@ -29775,7 +29775,7 @@
         <v>597</v>
       </c>
       <c r="R306" s="10" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="W306" s="5" t="s">
         <v>544</v>
@@ -29837,7 +29837,7 @@
         <v>597</v>
       </c>
       <c r="R307" s="10" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="W307" s="5" t="s">
         <v>544</v>
@@ -29899,7 +29899,7 @@
         <v>603</v>
       </c>
       <c r="R308" s="10" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="W308" s="5" t="s">
         <v>544</v>
@@ -29961,7 +29961,7 @@
         <v>608</v>
       </c>
       <c r="R309" s="10" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="W309" s="5" t="s">
         <v>544</v>
@@ -30023,7 +30023,7 @@
         <v>609</v>
       </c>
       <c r="R310" s="10" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="W310" s="5" t="s">
         <v>544</v>
@@ -30085,7 +30085,7 @@
         <v>610</v>
       </c>
       <c r="R311" s="10" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="W311" s="5" t="s">
         <v>544</v>
@@ -30147,7 +30147,7 @@
         <v>610</v>
       </c>
       <c r="R312" s="10" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="W312" s="5" t="s">
         <v>614</v>
@@ -30209,7 +30209,7 @@
         <v>610</v>
       </c>
       <c r="R313" s="10" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="W313" s="5" t="s">
         <v>615</v>
@@ -30271,7 +30271,7 @@
         <v>609</v>
       </c>
       <c r="R314" s="10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="W314" s="5" t="s">
         <v>616</v>
@@ -30333,7 +30333,7 @@
         <v>610</v>
       </c>
       <c r="R315" s="10" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="W315" s="5" t="s">
         <v>617</v>
@@ -30395,7 +30395,7 @@
         <v>611</v>
       </c>
       <c r="R316" s="10" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="W316" s="5" t="s">
         <v>617</v>
@@ -30457,7 +30457,7 @@
         <v>612</v>
       </c>
       <c r="R317" s="10" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="W317" s="5" t="s">
         <v>617</v>
@@ -30519,7 +30519,7 @@
         <v>613</v>
       </c>
       <c r="R318" s="10" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="W318" s="5" t="s">
         <v>617</v>
@@ -30581,7 +30581,7 @@
         <v>639</v>
       </c>
       <c r="R319" s="10" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="W319" s="5" t="s">
         <v>543</v>
@@ -30637,7 +30637,7 @@
         <v>640</v>
       </c>
       <c r="R320" s="10" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="W320" s="5" t="s">
         <v>543</v>
@@ -30693,7 +30693,7 @@
         <v>643</v>
       </c>
       <c r="R321" s="10" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="W321" s="5" t="s">
         <v>541</v>
@@ -30755,7 +30755,7 @@
         <v>646</v>
       </c>
       <c r="R322" s="10" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="W322" s="5" t="s">
         <v>541</v>
@@ -30817,7 +30817,7 @@
         <v>1526</v>
       </c>
       <c r="R323" s="48" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="W323" s="44" t="s">
         <v>1132</v>
@@ -30882,7 +30882,7 @@
         <v>1526</v>
       </c>
       <c r="R324" s="48" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="W324" s="44" t="s">
         <v>544</v>
@@ -30947,7 +30947,7 @@
         <v>1526</v>
       </c>
       <c r="R325" s="48" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="W325" s="44" t="s">
         <v>544</v>
@@ -31072,7 +31072,7 @@
         <v>959</v>
       </c>
       <c r="R327" s="48" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="W327" s="44" t="s">
         <v>960</v>
@@ -31223,7 +31223,7 @@
         <v>1464</v>
       </c>
       <c r="R329" s="48" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
@@ -31306,7 +31306,7 @@
         <v>1461</v>
       </c>
       <c r="R330" s="48" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
@@ -31389,7 +31389,7 @@
         <v>1464</v>
       </c>
       <c r="R331" s="48" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
@@ -31472,7 +31472,7 @@
         <v>1464</v>
       </c>
       <c r="R332" s="48" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
@@ -31555,7 +31555,7 @@
         <v>1464</v>
       </c>
       <c r="R333" s="48" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
@@ -31638,7 +31638,7 @@
         <v>1474</v>
       </c>
       <c r="R334" s="48" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
@@ -31721,7 +31721,7 @@
         <v>1474</v>
       </c>
       <c r="R335" s="48" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
@@ -31804,7 +31804,7 @@
         <v>1474</v>
       </c>
       <c r="R336" s="48" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
@@ -31887,7 +31887,7 @@
         <v>1479</v>
       </c>
       <c r="R337" s="48" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
@@ -31964,7 +31964,7 @@
         <v>984</v>
       </c>
       <c r="R338" s="40" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="W338" s="19" t="s">
         <v>541</v>
@@ -32038,7 +32038,7 @@
         <v>984</v>
       </c>
       <c r="R339" s="40" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="S339" s="19"/>
       <c r="T339" s="19"/>
@@ -32123,7 +32123,7 @@
         <v>984</v>
       </c>
       <c r="R340" s="40" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="S340" s="19"/>
       <c r="T340" s="19"/>
@@ -32204,7 +32204,7 @@
         <v>947</v>
       </c>
       <c r="R341" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="W341" s="5" t="s">
         <v>1051</v>
@@ -32417,7 +32417,7 @@
         <v>947</v>
       </c>
       <c r="R344" s="10" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="W344" s="5" t="s">
         <v>1051</v>
@@ -32630,7 +32630,7 @@
         <v>947</v>
       </c>
       <c r="R347" s="10" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="W347" s="5" t="s">
         <v>1051</v>
@@ -32701,7 +32701,7 @@
         <v>947</v>
       </c>
       <c r="R348" s="10" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="W348" s="5" t="s">
         <v>1051</v>
@@ -32772,7 +32772,7 @@
         <v>947</v>
       </c>
       <c r="R349" s="10" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="W349" s="5" t="s">
         <v>1051</v>
@@ -32843,7 +32843,7 @@
         <v>947</v>
       </c>
       <c r="R350" s="10" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="W350" s="5" t="s">
         <v>1051</v>
@@ -32914,7 +32914,7 @@
         <v>947</v>
       </c>
       <c r="R351" s="10" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="W351" s="5" t="s">
         <v>1051</v>
@@ -32985,7 +32985,7 @@
         <v>947</v>
       </c>
       <c r="R352" s="10" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="W352" s="5" t="s">
         <v>1057</v>
@@ -33671,7 +33671,7 @@
         <v>1064</v>
       </c>
       <c r="R362" s="10" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="W362" s="5" t="s">
         <v>1077</v>
@@ -33890,7 +33890,7 @@
         <v>1104</v>
       </c>
       <c r="R365" s="10" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="W365" s="5" t="s">
         <v>588</v>
@@ -33955,7 +33955,7 @@
         <v>1104</v>
       </c>
       <c r="R366" s="10" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="W366" s="5" t="s">
         <v>588</v>
@@ -34020,7 +34020,7 @@
         <v>1104</v>
       </c>
       <c r="R367" s="10" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="W367" s="5" t="s">
         <v>588</v>
@@ -34085,7 +34085,7 @@
         <v>1104</v>
       </c>
       <c r="R368" s="10" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="W368" s="5" t="s">
         <v>588</v>
@@ -34150,7 +34150,7 @@
         <v>1123</v>
       </c>
       <c r="R369" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="W369" s="5" t="s">
         <v>588</v>
@@ -34215,7 +34215,7 @@
         <v>1115</v>
       </c>
       <c r="R370" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="W370" s="5" t="s">
         <v>588</v>
@@ -34277,7 +34277,7 @@
         <v>1115</v>
       </c>
       <c r="R371" s="10" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="W371" s="5" t="s">
         <v>555</v>
@@ -34339,7 +34339,7 @@
         <v>1115</v>
       </c>
       <c r="R372" s="10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="W372" s="5" t="s">
         <v>1113</v>
@@ -34401,7 +34401,7 @@
         <v>1115</v>
       </c>
       <c r="R373" s="10" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="W373" s="5" t="s">
         <v>557</v>
@@ -34466,7 +34466,7 @@
         <v>1124</v>
       </c>
       <c r="R374" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="W374" s="5" t="s">
         <v>1119</v>
@@ -34534,7 +34534,7 @@
         <v>1124</v>
       </c>
       <c r="R375" s="10" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="W375" s="5" t="s">
         <v>588</v>
@@ -34602,7 +34602,7 @@
         <v>1145</v>
       </c>
       <c r="R376" s="10" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="W376" s="5" t="s">
         <v>1130</v>
@@ -34670,7 +34670,7 @@
         <v>1145</v>
       </c>
       <c r="R377" s="10" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="W377" s="5" t="s">
         <v>1132</v>
@@ -34738,7 +34738,7 @@
         <v>1145</v>
       </c>
       <c r="R378" s="10" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="W378" s="5" t="s">
         <v>1135</v>
@@ -34806,7 +34806,7 @@
         <v>1145</v>
       </c>
       <c r="R379" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="W379" s="5" t="s">
         <v>1113</v>
@@ -34874,7 +34874,7 @@
         <v>1145</v>
       </c>
       <c r="R380" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="W380" s="5" t="s">
         <v>1136</v>
@@ -34942,7 +34942,7 @@
         <v>1145</v>
       </c>
       <c r="R381" s="10" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="W381" s="5" t="s">
         <v>1130</v>
@@ -35010,7 +35010,7 @@
         <v>1145</v>
       </c>
       <c r="R382" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="W382" s="5" t="s">
         <v>1132</v>
@@ -35078,7 +35078,7 @@
         <v>1145</v>
       </c>
       <c r="R383" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="W383" s="5" t="s">
         <v>1174</v>
@@ -35146,7 +35146,7 @@
         <v>1145</v>
       </c>
       <c r="R384" s="10" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="W384" s="5" t="s">
         <v>1141</v>
@@ -35214,7 +35214,7 @@
         <v>1145</v>
       </c>
       <c r="R385" s="10" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="W385" s="5" t="s">
         <v>1136</v>
@@ -35283,7 +35283,7 @@
         <v>1163</v>
       </c>
       <c r="R386" s="61" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="W386" s="19" t="s">
         <v>1175</v>
@@ -35352,7 +35352,7 @@
         <v>1165</v>
       </c>
       <c r="R387" s="61" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="W387" s="19" t="s">
         <v>1175</v>
@@ -35490,7 +35490,7 @@
         <v>1167</v>
       </c>
       <c r="R389" s="94" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="W389" s="19" t="s">
         <v>1175</v>
@@ -35559,7 +35559,7 @@
         <v>1168</v>
       </c>
       <c r="R390" s="94" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="W390" s="19" t="s">
         <v>1175</v>
@@ -35628,7 +35628,7 @@
         <v>1169</v>
       </c>
       <c r="R391" s="94" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="W391" s="19" t="s">
         <v>1175</v>
@@ -35697,7 +35697,7 @@
         <v>1164</v>
       </c>
       <c r="R392" s="61" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="W392" s="19" t="s">
         <v>1175</v>
@@ -35835,7 +35835,7 @@
         <v>1171</v>
       </c>
       <c r="R394" s="61" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="W394" s="19" t="s">
         <v>1175</v>
@@ -35901,7 +35901,7 @@
         <v>1195</v>
       </c>
       <c r="R395" s="10" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="W395" s="52" t="s">
         <v>544</v>
@@ -35964,7 +35964,7 @@
         <v>1189</v>
       </c>
       <c r="R396" s="10" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="W396" s="52" t="s">
         <v>544</v>
@@ -36027,7 +36027,7 @@
         <v>1189</v>
       </c>
       <c r="R397" s="10" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="W397" s="52" t="s">
         <v>544</v>
@@ -36090,7 +36090,7 @@
         <v>1189</v>
       </c>
       <c r="R398" s="10" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="W398" s="52" t="s">
         <v>544</v>
@@ -36153,7 +36153,7 @@
         <v>1189</v>
       </c>
       <c r="R399" s="10" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="W399" s="52" t="s">
         <v>544</v>
@@ -36216,7 +36216,7 @@
         <v>1189</v>
       </c>
       <c r="R400" s="10" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="W400" s="52" t="s">
         <v>544</v>
@@ -36279,7 +36279,7 @@
         <v>1199</v>
       </c>
       <c r="R401" s="5" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="W401" s="53" t="s">
         <v>1200</v>
@@ -36345,7 +36345,7 @@
         <v>1199</v>
       </c>
       <c r="R402" s="5" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="W402" s="53" t="s">
         <v>1200</v>
@@ -36411,7 +36411,7 @@
         <v>1204</v>
       </c>
       <c r="R403" s="5" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="W403" s="53" t="s">
         <v>1200</v>
@@ -36477,7 +36477,7 @@
         <v>1206</v>
       </c>
       <c r="R404" s="5" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="W404" s="53" t="s">
         <v>1200</v>
@@ -36543,7 +36543,7 @@
         <v>1206</v>
       </c>
       <c r="R405" s="5" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="W405" s="53" t="s">
         <v>1200</v>
@@ -36609,7 +36609,7 @@
         <v>1209</v>
       </c>
       <c r="R406" s="5" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="W406" s="53" t="s">
         <v>1200</v>
@@ -36675,7 +36675,7 @@
         <v>1211</v>
       </c>
       <c r="R407" s="5" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="W407" s="53" t="s">
         <v>1200</v>
@@ -36741,7 +36741,7 @@
         <v>1244</v>
       </c>
       <c r="R408" s="10" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="W408" s="60" t="s">
         <v>1245</v>
@@ -36807,7 +36807,7 @@
         <v>1244</v>
       </c>
       <c r="R409" s="10" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="W409" s="60" t="s">
         <v>1246</v>
@@ -36873,7 +36873,7 @@
         <v>1244</v>
       </c>
       <c r="R410" s="10" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="W410" s="60" t="s">
         <v>1246</v>
@@ -36939,7 +36939,7 @@
         <v>1244</v>
       </c>
       <c r="R411" s="10" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="W411" s="60" t="s">
         <v>1247</v>
@@ -37005,7 +37005,7 @@
         <v>1244</v>
       </c>
       <c r="R412" s="10" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="W412" s="60" t="s">
         <v>1248</v>
@@ -37071,7 +37071,7 @@
         <v>1244</v>
       </c>
       <c r="R413" s="10" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="W413" s="60" t="s">
         <v>1246</v>
@@ -37118,7 +37118,7 @@
         <v>1250</v>
       </c>
       <c r="H414" s="5" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="L414" s="81">
         <v>-4</v>
@@ -37139,7 +37139,7 @@
         <v>90</v>
       </c>
       <c r="R414" s="86" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="W414" s="81" t="s">
         <v>541</v>
@@ -41798,13 +41798,13 @@
         <v>1</v>
       </c>
       <c r="G486" s="19" t="s">
+        <v>1805</v>
+      </c>
+      <c r="I486" s="19" t="s">
         <v>1806</v>
       </c>
-      <c r="I486" s="19" t="s">
+      <c r="J486" s="19" t="s">
         <v>1807</v>
-      </c>
-      <c r="J486" s="19" t="s">
-        <v>1808</v>
       </c>
       <c r="L486" s="19">
         <v>-31</v>
@@ -41822,10 +41822,10 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="19" t="s">
+        <v>1808</v>
+      </c>
+      <c r="R486" s="40" t="s">
         <v>1809</v>
-      </c>
-      <c r="R486" s="40" t="s">
-        <v>1810</v>
       </c>
       <c r="W486" s="19" t="s">
         <v>544</v>
@@ -41863,13 +41863,13 @@
         <v>1</v>
       </c>
       <c r="G487" s="19" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I487" s="19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J487" s="19" t="s">
         <v>1811</v>
-      </c>
-      <c r="I487" s="19" t="s">
-        <v>1807</v>
-      </c>
-      <c r="J487" s="19" t="s">
-        <v>1812</v>
       </c>
       <c r="L487" s="19">
         <v>-31</v>
@@ -41887,10 +41887,10 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="19" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="R487" s="40" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="W487" s="19" t="s">
         <v>544</v>
@@ -41928,13 +41928,13 @@
         <v>1</v>
       </c>
       <c r="G488" s="19" t="s">
+        <v>1813</v>
+      </c>
+      <c r="I488" s="19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J488" s="19" t="s">
         <v>1814</v>
-      </c>
-      <c r="I488" s="19" t="s">
-        <v>1807</v>
-      </c>
-      <c r="J488" s="19" t="s">
-        <v>1815</v>
       </c>
       <c r="L488" s="19">
         <v>-31</v>
@@ -41952,10 +41952,10 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="19" t="s">
+        <v>1815</v>
+      </c>
+      <c r="R488" s="40" t="s">
         <v>1816</v>
-      </c>
-      <c r="R488" s="40" t="s">
-        <v>1817</v>
       </c>
       <c r="W488" s="19" t="s">
         <v>544</v>
@@ -41993,13 +41993,13 @@
         <v>1</v>
       </c>
       <c r="G489" s="19" t="s">
+        <v>1817</v>
+      </c>
+      <c r="I489" s="19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J489" s="19" t="s">
         <v>1818</v>
-      </c>
-      <c r="I489" s="19" t="s">
-        <v>1807</v>
-      </c>
-      <c r="J489" s="19" t="s">
-        <v>1819</v>
       </c>
       <c r="L489" s="19">
         <v>-31</v>
@@ -42017,10 +42017,10 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="19" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="R489" s="40" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="W489" s="19" t="s">
         <v>544</v>
@@ -42061,10 +42061,10 @@
         <v>1202</v>
       </c>
       <c r="I490" s="19" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="J490" s="19" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="L490" s="19">
         <v>-31</v>
@@ -42082,10 +42082,10 @@
         <v>29800</v>
       </c>
       <c r="Q490" s="19" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="R490" s="40" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="W490" s="19" t="s">
         <v>544</v>
@@ -42123,13 +42123,13 @@
         <v>1</v>
       </c>
       <c r="G491" s="19" t="s">
+        <v>1822</v>
+      </c>
+      <c r="I491" s="19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J491" s="19" t="s">
         <v>1823</v>
-      </c>
-      <c r="I491" s="19" t="s">
-        <v>1807</v>
-      </c>
-      <c r="J491" s="19" t="s">
-        <v>1824</v>
       </c>
       <c r="L491" s="19">
         <v>-31</v>
@@ -42147,7 +42147,7 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="19" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="R491" s="40" t="s">
         <v>1221</v>
@@ -42188,13 +42188,13 @@
         <v>1</v>
       </c>
       <c r="G492" s="19" t="s">
+        <v>1825</v>
+      </c>
+      <c r="I492" s="19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J492" s="19" t="s">
         <v>1826</v>
-      </c>
-      <c r="I492" s="19" t="s">
-        <v>1807</v>
-      </c>
-      <c r="J492" s="19" t="s">
-        <v>1827</v>
       </c>
       <c r="L492" s="19">
         <v>-31</v>
@@ -42206,19 +42206,19 @@
         <v>0</v>
       </c>
       <c r="O492" s="19" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="P492" s="19">
         <v>99800</v>
       </c>
       <c r="Q492" s="19" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="R492" s="40" t="s">
         <v>1222</v>
       </c>
       <c r="W492" s="19" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="X492" s="19">
         <v>9999999</v>
@@ -43302,7 +43302,7 @@
         <v>31</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>32</v>
@@ -43388,10 +43388,10 @@
         <v>3</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="T2" s="34" t="s">
         <v>912</v>
@@ -43459,10 +43459,10 @@
         <v>4</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="T3" s="34" t="s">
         <v>912</v>
@@ -43530,10 +43530,10 @@
         <v>5</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="T4" s="34" t="s">
         <v>913</v>
@@ -43601,10 +43601,10 @@
         <v>6</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="T5" s="34" t="s">
         <v>913</v>
@@ -43672,10 +43672,10 @@
         <v>7</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="T6" s="34" t="s">
         <v>913</v>
@@ -43743,10 +43743,10 @@
         <v>9</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="T7" s="34" t="s">
         <v>913</v>
@@ -43809,10 +43809,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="T8" s="34" t="s">
         <v>914</v>
@@ -43875,10 +43875,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="U9" s="11">
         <v>5000</v>
@@ -43941,10 +43941,10 @@
         <v>1</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="U10" s="11">
         <v>1000</v>
@@ -44007,10 +44007,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>915</v>
@@ -44078,10 +44078,10 @@
         <v>9</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="T12" s="34" t="s">
         <v>913</v>
@@ -44149,10 +44149,10 @@
         <v>10</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="T13" s="34" t="s">
         <v>915</v>
@@ -44220,10 +44220,10 @@
         <v>11</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="T14" s="34" t="s">
         <v>916</v>
@@ -44289,10 +44289,10 @@
         <v>0</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="R15" s="34" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="T15" s="34"/>
       <c r="U15" s="11">
@@ -44361,10 +44361,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="T16" s="34" t="s">
         <v>917</v>
@@ -44427,10 +44427,10 @@
         <v>4</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="T17" s="34" t="s">
         <v>918</v>
@@ -44493,10 +44493,10 @@
         <v>5</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="T18" s="34" t="s">
         <v>915</v>
@@ -44559,10 +44559,10 @@
         <v>6</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="T19" s="34" t="s">
         <v>919</v>
@@ -44625,10 +44625,10 @@
         <v>7</v>
       </c>
       <c r="Q20" s="34" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="T20" s="34" t="s">
         <v>913</v>
@@ -44691,10 +44691,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="T21" s="36" t="s">
         <v>912</v>
@@ -44757,10 +44757,10 @@
         <v>2</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="T22" s="34"/>
       <c r="U22" s="11">
@@ -44821,10 +44821,10 @@
         <v>1</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="R23" s="34" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="T23" s="34"/>
       <c r="U23" s="11">
@@ -44888,10 +44888,10 @@
         <v>0</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="R24" s="34" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="T24" s="34"/>
       <c r="U24" s="11">
@@ -44960,10 +44960,10 @@
         <v>8</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="T25" s="34" t="s">
         <v>920</v>
